--- a/va_facility_data_2025-02-20/Newington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Newington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Newington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R85ae03576448454487e0329cbc359e9c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R240b715d8c584c368cba3212dc4dd3d8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R24a443f395db4a3b9cd38b769dc4c284"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf85f4a87517346fd91beb666a857fcea"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra94b0a4d09e540d6841431f2676a4589"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R39fab231dd2b4d5eaae7de91d0afc958"/>
   </x:sheets>
 </x:workbook>
 </file>
